--- a/Login.xlsx
+++ b/Login.xlsx
@@ -151,7 +151,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -162,8 +164,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -247,13 +249,13 @@
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.65"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -274,7 +276,7 @@
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -282,7 +284,7 @@
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -290,7 +292,7 @@
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -314,7 +316,7 @@
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -322,7 +324,7 @@
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -330,7 +332,7 @@
       <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -338,7 +340,7 @@
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -346,7 +348,7 @@
       <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Login.xlsx
+++ b/Login.xlsx
@@ -249,13 +249,13 @@
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:B12"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.64"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
